--- a/Client/Assets/Data/XLSXS/EntityPlayerData.xlsx
+++ b/Client/Assets/Data/XLSXS/EntityPlayerData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\PhotonGameJam\Client\Assets\Data\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36340ED-5FAD-4F48-8953-47048A58607E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38C8DF7-1EAF-424D-84CF-1DDEF8829EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17010" yWindow="3465" windowWidth="20115" windowHeight="16755" xr2:uid="{79A95904-7ECB-477A-BCA4-53F736690B4B}"/>
+    <workbookView xWindow="9315" yWindow="2865" windowWidth="22680" windowHeight="16755" xr2:uid="{79A95904-7ECB-477A-BCA4-53F736690B4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,50 +39,101 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 캐릭터명</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>플레이어명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장전속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">쉴드 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉴드 쿨타임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_AttackSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Reload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_ShieldCooltime_sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_JumpPower</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PlayerCharName</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_PlayerCharName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_movSpd</t>
-  </si>
-  <si>
-    <t>_jumpPower</t>
-  </si>
-  <si>
-    <t>_hp</t>
-  </si>
-  <si>
-    <t>플레이어 점프 힘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Normal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,8 +149,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,13 +186,40 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -133,7 +228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -141,6 +236,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -457,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740259D2-4F51-4A9B-AFFF-743829693509}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -469,91 +573,182 @@
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="10" max="10" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>50000</v>
+      </c>
+      <c r="F4">
+        <v>30000</v>
+      </c>
+      <c r="G4">
+        <v>3000</v>
+      </c>
+      <c r="H4">
+        <v>40000</v>
+      </c>
+      <c r="I4">
+        <v>30000</v>
+      </c>
+      <c r="J4">
+        <v>300000</v>
+      </c>
+      <c r="K4">
+        <v>30000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C5">
+        <v>1000000</v>
+      </c>
+      <c r="D5">
+        <v>100000</v>
+      </c>
+      <c r="E5">
+        <v>50000</v>
+      </c>
+      <c r="F5">
         <v>30000</v>
       </c>
-      <c r="D5">
-        <v>50000</v>
-      </c>
-      <c r="E5">
-        <v>1000000</v>
+      <c r="G5">
+        <v>3000</v>
+      </c>
+      <c r="H5">
+        <v>40000</v>
+      </c>
+      <c r="I5">
+        <v>30000</v>
+      </c>
+      <c r="J5">
+        <v>300000</v>
+      </c>
+      <c r="K5">
+        <v>160000</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/XLSXS/EntityPlayerData.xlsx
+++ b/Client/Assets/Data/XLSXS/EntityPlayerData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\PhotonGameJam\Client\Assets\Data\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38C8DF7-1EAF-424D-84CF-1DDEF8829EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236D5702-B047-4704-9FBE-25D01CA478F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9315" yWindow="2865" windowWidth="22680" windowHeight="16755" xr2:uid="{79A95904-7ECB-477A-BCA4-53F736690B4B}"/>
+    <workbookView xWindow="6600" yWindow="2295" windowWidth="29850" windowHeight="16755" xr2:uid="{79A95904-7ECB-477A-BCA4-53F736690B4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
